--- a/IR_uses_standards.xlsx
+++ b/IR_uses_standards.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8340" uniqueCount="1021">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8371" uniqueCount="1021">
   <si>
     <t>WaterbodyTypes</t>
   </si>
@@ -29630,7 +29630,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I18" sqref="I18"/>
+      <selection pane="bottomLeft" sqref="A1:K1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -33236,9 +33236,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="L2" sqref="L2"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -33334,6 +33332,9 @@
       <c r="M2" t="s">
         <v>793</v>
       </c>
+      <c r="O2" t="s">
+        <v>994</v>
+      </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
@@ -33366,6 +33367,9 @@
       <c r="M3" t="s">
         <v>793</v>
       </c>
+      <c r="O3" t="s">
+        <v>994</v>
+      </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
@@ -33401,6 +33405,9 @@
       <c r="M4" t="s">
         <v>793</v>
       </c>
+      <c r="O4" t="s">
+        <v>994</v>
+      </c>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
@@ -33432,6 +33439,9 @@
       </c>
       <c r="M5" t="s">
         <v>793</v>
+      </c>
+      <c r="O5" t="s">
+        <v>994</v>
       </c>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.25">
@@ -33461,6 +33471,9 @@
       <c r="M6" t="s">
         <v>793</v>
       </c>
+      <c r="O6" t="s">
+        <v>994</v>
+      </c>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
@@ -33489,6 +33502,9 @@
       <c r="M7" t="s">
         <v>793</v>
       </c>
+      <c r="O7" t="s">
+        <v>994</v>
+      </c>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
@@ -33517,6 +33533,9 @@
       <c r="M8" t="s">
         <v>793</v>
       </c>
+      <c r="O8" t="s">
+        <v>994</v>
+      </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
@@ -33545,6 +33564,9 @@
       <c r="M9" t="s">
         <v>793</v>
       </c>
+      <c r="O9" t="s">
+        <v>994</v>
+      </c>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
@@ -33573,6 +33595,9 @@
       <c r="M10" t="s">
         <v>793</v>
       </c>
+      <c r="O10" t="s">
+        <v>994</v>
+      </c>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
@@ -33601,6 +33626,9 @@
       <c r="M11" t="s">
         <v>793</v>
       </c>
+      <c r="O11" t="s">
+        <v>994</v>
+      </c>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
@@ -33629,6 +33657,9 @@
       <c r="M12" t="s">
         <v>793</v>
       </c>
+      <c r="O12" t="s">
+        <v>994</v>
+      </c>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
@@ -33657,6 +33688,9 @@
       <c r="M13" t="s">
         <v>793</v>
       </c>
+      <c r="O13" t="s">
+        <v>994</v>
+      </c>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
@@ -33685,6 +33719,9 @@
       <c r="M14" t="s">
         <v>793</v>
       </c>
+      <c r="O14" t="s">
+        <v>994</v>
+      </c>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
@@ -33713,6 +33750,9 @@
       <c r="M15" t="s">
         <v>793</v>
       </c>
+      <c r="O15" t="s">
+        <v>994</v>
+      </c>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
@@ -33741,8 +33781,11 @@
       <c r="M16" t="s">
         <v>793</v>
       </c>
-    </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="O16" t="s">
+        <v>994</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>721</v>
       </c>
@@ -33769,8 +33812,11 @@
       <c r="M17" t="s">
         <v>793</v>
       </c>
-    </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="O17" t="s">
+        <v>994</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>721</v>
       </c>
@@ -33797,8 +33843,11 @@
       <c r="M18" t="s">
         <v>793</v>
       </c>
-    </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="O18" t="s">
+        <v>994</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>721</v>
       </c>
@@ -33825,8 +33874,11 @@
       <c r="M19" t="s">
         <v>793</v>
       </c>
-    </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="O19" t="s">
+        <v>994</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>721</v>
       </c>
@@ -33853,8 +33905,11 @@
       <c r="M20" t="s">
         <v>793</v>
       </c>
-    </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="O20" t="s">
+        <v>994</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>721</v>
       </c>
@@ -33881,8 +33936,11 @@
       <c r="M21" t="s">
         <v>793</v>
       </c>
-    </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="O21" t="s">
+        <v>994</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>721</v>
       </c>
@@ -33909,8 +33967,11 @@
       <c r="M22" t="s">
         <v>793</v>
       </c>
-    </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="O22" t="s">
+        <v>994</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>721</v>
       </c>
@@ -33937,8 +33998,11 @@
       <c r="M23" t="s">
         <v>793</v>
       </c>
-    </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="O23" t="s">
+        <v>994</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>721</v>
       </c>
@@ -33965,8 +34029,11 @@
       <c r="M24" t="s">
         <v>793</v>
       </c>
-    </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="O24" t="s">
+        <v>994</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>721</v>
       </c>
@@ -33993,8 +34060,11 @@
       <c r="M25" t="s">
         <v>793</v>
       </c>
-    </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="O25" t="s">
+        <v>994</v>
+      </c>
+    </row>
+    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>721</v>
       </c>
@@ -34021,8 +34091,11 @@
       <c r="M26" t="s">
         <v>793</v>
       </c>
-    </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="O26" t="s">
+        <v>994</v>
+      </c>
+    </row>
+    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>721</v>
       </c>
@@ -34049,8 +34122,11 @@
       <c r="M27" t="s">
         <v>793</v>
       </c>
-    </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="O27" t="s">
+        <v>994</v>
+      </c>
+    </row>
+    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>721</v>
       </c>
@@ -34077,8 +34153,11 @@
       <c r="M28" t="s">
         <v>793</v>
       </c>
-    </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="O28" t="s">
+        <v>994</v>
+      </c>
+    </row>
+    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>721</v>
       </c>
@@ -34105,8 +34184,11 @@
       <c r="M29" t="s">
         <v>793</v>
       </c>
-    </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="O29" t="s">
+        <v>994</v>
+      </c>
+    </row>
+    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>721</v>
       </c>
@@ -34137,8 +34219,11 @@
       <c r="M30" t="s">
         <v>793</v>
       </c>
-    </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="O30" t="s">
+        <v>994</v>
+      </c>
+    </row>
+    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>721</v>
       </c>
@@ -34169,8 +34254,11 @@
       <c r="M31" t="s">
         <v>793</v>
       </c>
-    </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="O31" t="s">
+        <v>994</v>
+      </c>
+    </row>
+    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>721</v>
       </c>
@@ -34196,6 +34284,9 @@
       </c>
       <c r="M32" t="s">
         <v>793</v>
+      </c>
+      <c r="O32" t="s">
+        <v>994</v>
       </c>
     </row>
   </sheetData>

--- a/IR_uses_standards.xlsx
+++ b/IR_uses_standards.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="120" windowWidth="27795" windowHeight="12585" tabRatio="577" firstSheet="1" activeTab="5"/>
+    <workbookView xWindow="480" yWindow="120" windowWidth="27795" windowHeight="12585" tabRatio="577" firstSheet="1" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="PolyToTableMatch_BU" sheetId="4" r:id="rId1"/>
@@ -18,14 +18,14 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">BeneficialUses!$A$1:$U$633</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">PolyToTableMatch_BU!$A$2:$H$629</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'R317214DomesticRecAgCriteria_JV'!$B$1:$K$57</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'R317214DomesticRecAgCriteria_JV'!$B$1:$K$61</definedName>
   </definedNames>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8371" uniqueCount="1021">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8387" uniqueCount="1021">
   <si>
     <t>WaterbodyTypes</t>
   </si>
@@ -29626,11 +29626,11 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K87"/>
+  <dimension ref="A1:K91"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" sqref="A1:K1"/>
+      <selection pane="bottomLeft" activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -30098,76 +30098,61 @@
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>722</v>
+        <v>719</v>
       </c>
       <c r="B16" t="s">
-        <v>8</v>
-      </c>
-      <c r="C16" t="s">
-        <v>709</v>
+        <v>10</v>
+      </c>
+      <c r="E16" t="s">
+        <v>995</v>
+      </c>
+      <c r="F16" t="s">
+        <v>995</v>
       </c>
       <c r="J16">
-        <v>10</v>
-      </c>
-      <c r="K16" t="s">
-        <v>723</v>
+        <v>6.5</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>722</v>
+        <v>719</v>
       </c>
       <c r="B17" t="s">
-        <v>9</v>
-      </c>
-      <c r="C17" t="s">
-        <v>709</v>
+        <v>10</v>
+      </c>
+      <c r="E17" t="s">
+        <v>994</v>
+      </c>
+      <c r="F17" t="s">
+        <v>994</v>
       </c>
       <c r="J17">
-        <v>10</v>
-      </c>
-      <c r="K17" t="s">
-        <v>723</v>
+        <v>9</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>728</v>
+        <v>719</v>
       </c>
       <c r="B18" t="s">
-        <v>7</v>
-      </c>
-      <c r="C18" t="s">
-        <v>729</v>
+        <v>11</v>
       </c>
       <c r="E18" t="s">
-        <v>994</v>
+        <v>995</v>
       </c>
       <c r="F18" t="s">
-        <v>994</v>
-      </c>
-      <c r="G18">
-        <v>1</v>
-      </c>
-      <c r="H18" t="s">
-        <v>1001</v>
+        <v>995</v>
       </c>
       <c r="J18">
-        <v>0.01</v>
-      </c>
-      <c r="K18" t="s">
-        <v>731</v>
+        <v>6.5</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>728</v>
+        <v>719</v>
       </c>
       <c r="B19" t="s">
-        <v>721</v>
-      </c>
-      <c r="C19" t="s">
-        <v>729</v>
+        <v>11</v>
       </c>
       <c r="E19" t="s">
         <v>994</v>
@@ -30175,80 +30160,47 @@
       <c r="F19" t="s">
         <v>994</v>
       </c>
-      <c r="G19">
-        <v>1</v>
-      </c>
-      <c r="H19" t="s">
-        <v>1001</v>
-      </c>
       <c r="J19">
-        <v>0.1</v>
-      </c>
-      <c r="K19" t="s">
-        <v>731</v>
+        <v>9</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>733</v>
+        <v>722</v>
       </c>
       <c r="B20" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C20" t="s">
-        <v>729</v>
-      </c>
-      <c r="E20" t="s">
-        <v>994</v>
-      </c>
-      <c r="F20" t="s">
-        <v>994</v>
-      </c>
-      <c r="G20">
-        <v>1</v>
-      </c>
-      <c r="H20" t="s">
-        <v>1001</v>
+        <v>709</v>
       </c>
       <c r="J20">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="K20" t="s">
-        <v>731</v>
+        <v>723</v>
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>735</v>
+        <v>722</v>
       </c>
       <c r="B21" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C21" t="s">
-        <v>729</v>
-      </c>
-      <c r="E21" t="s">
-        <v>994</v>
-      </c>
-      <c r="F21" t="s">
-        <v>994</v>
-      </c>
-      <c r="G21">
-        <v>1</v>
-      </c>
-      <c r="H21" t="s">
-        <v>1001</v>
+        <v>709</v>
       </c>
       <c r="J21">
-        <v>4.0000000000000001E-3</v>
+        <v>10</v>
       </c>
       <c r="K21" t="s">
-        <v>731</v>
+        <v>723</v>
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>738</v>
+        <v>728</v>
       </c>
       <c r="B22" t="s">
         <v>7</v>
@@ -30277,7 +30229,7 @@
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>738</v>
+        <v>728</v>
       </c>
       <c r="B23" t="s">
         <v>721</v>
@@ -30298,7 +30250,7 @@
         <v>1001</v>
       </c>
       <c r="J23">
-        <v>0.01</v>
+        <v>0.1</v>
       </c>
       <c r="K23" t="s">
         <v>731</v>
@@ -30306,7 +30258,7 @@
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>740</v>
+        <v>733</v>
       </c>
       <c r="B24" t="s">
         <v>7</v>
@@ -30327,7 +30279,7 @@
         <v>1001</v>
       </c>
       <c r="J24">
-        <v>0.05</v>
+        <v>1</v>
       </c>
       <c r="K24" t="s">
         <v>731</v>
@@ -30335,10 +30287,10 @@
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>740</v>
+        <v>735</v>
       </c>
       <c r="B25" t="s">
-        <v>721</v>
+        <v>7</v>
       </c>
       <c r="C25" t="s">
         <v>729</v>
@@ -30356,7 +30308,7 @@
         <v>1001</v>
       </c>
       <c r="J25">
-        <v>0.1</v>
+        <v>4.0000000000000001E-3</v>
       </c>
       <c r="K25" t="s">
         <v>731</v>
@@ -30364,10 +30316,10 @@
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>742</v>
+        <v>738</v>
       </c>
       <c r="B26" t="s">
-        <v>721</v>
+        <v>7</v>
       </c>
       <c r="C26" t="s">
         <v>729</v>
@@ -30385,7 +30337,7 @@
         <v>1001</v>
       </c>
       <c r="J26">
-        <v>0.2</v>
+        <v>0.01</v>
       </c>
       <c r="K26" t="s">
         <v>731</v>
@@ -30393,10 +30345,10 @@
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>744</v>
+        <v>738</v>
       </c>
       <c r="B27" t="s">
-        <v>7</v>
+        <v>721</v>
       </c>
       <c r="C27" t="s">
         <v>729</v>
@@ -30414,7 +30366,7 @@
         <v>1001</v>
       </c>
       <c r="J27">
-        <v>1.4999999999999999E-2</v>
+        <v>0.01</v>
       </c>
       <c r="K27" t="s">
         <v>731</v>
@@ -30422,10 +30374,10 @@
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>744</v>
+        <v>740</v>
       </c>
       <c r="B28" t="s">
-        <v>721</v>
+        <v>7</v>
       </c>
       <c r="C28" t="s">
         <v>729</v>
@@ -30443,7 +30395,7 @@
         <v>1001</v>
       </c>
       <c r="J28">
-        <v>0.1</v>
+        <v>0.05</v>
       </c>
       <c r="K28" t="s">
         <v>731</v>
@@ -30451,10 +30403,10 @@
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>746</v>
+        <v>740</v>
       </c>
       <c r="B29" t="s">
-        <v>7</v>
+        <v>721</v>
       </c>
       <c r="C29" t="s">
         <v>729</v>
@@ -30472,7 +30424,7 @@
         <v>1001</v>
       </c>
       <c r="J29">
-        <v>2E-3</v>
+        <v>0.1</v>
       </c>
       <c r="K29" t="s">
         <v>731</v>
@@ -30480,10 +30432,10 @@
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>748</v>
+        <v>742</v>
       </c>
       <c r="B30" t="s">
-        <v>7</v>
+        <v>721</v>
       </c>
       <c r="C30" t="s">
         <v>729</v>
@@ -30501,7 +30453,7 @@
         <v>1001</v>
       </c>
       <c r="J30">
-        <v>0.05</v>
+        <v>0.2</v>
       </c>
       <c r="K30" t="s">
         <v>731</v>
@@ -30509,10 +30461,10 @@
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>748</v>
+        <v>744</v>
       </c>
       <c r="B31" t="s">
-        <v>721</v>
+        <v>7</v>
       </c>
       <c r="C31" t="s">
         <v>729</v>
@@ -30530,7 +30482,7 @@
         <v>1001</v>
       </c>
       <c r="J31">
-        <v>50</v>
+        <v>1.4999999999999999E-2</v>
       </c>
       <c r="K31" t="s">
         <v>731</v>
@@ -30538,10 +30490,10 @@
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>750</v>
+        <v>744</v>
       </c>
       <c r="B32" t="s">
-        <v>7</v>
+        <v>721</v>
       </c>
       <c r="C32" t="s">
         <v>729</v>
@@ -30559,7 +30511,7 @@
         <v>1001</v>
       </c>
       <c r="J32">
-        <v>0.05</v>
+        <v>0.1</v>
       </c>
       <c r="K32" t="s">
         <v>731</v>
@@ -30567,13 +30519,13 @@
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>753</v>
+        <v>746</v>
       </c>
       <c r="B33" t="s">
-        <v>721</v>
+        <v>7</v>
       </c>
       <c r="C33" t="s">
-        <v>709</v>
+        <v>729</v>
       </c>
       <c r="E33" t="s">
         <v>994</v>
@@ -30588,7 +30540,7 @@
         <v>1001</v>
       </c>
       <c r="J33">
-        <v>0.75</v>
+        <v>2E-3</v>
       </c>
       <c r="K33" t="s">
         <v>731</v>
@@ -30596,13 +30548,13 @@
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>756</v>
+        <v>748</v>
       </c>
       <c r="B34" t="s">
         <v>7</v>
       </c>
       <c r="C34" t="s">
-        <v>709</v>
+        <v>729</v>
       </c>
       <c r="E34" t="s">
         <v>994</v>
@@ -30617,7 +30569,7 @@
         <v>1001</v>
       </c>
       <c r="J34">
-        <v>0.01</v>
+        <v>0.05</v>
       </c>
       <c r="K34" t="s">
         <v>731</v>
@@ -30625,13 +30577,13 @@
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>758</v>
+        <v>748</v>
       </c>
       <c r="B35" t="s">
-        <v>7</v>
+        <v>721</v>
       </c>
       <c r="C35" t="s">
-        <v>709</v>
+        <v>729</v>
       </c>
       <c r="E35" t="s">
         <v>994</v>
@@ -30646,7 +30598,7 @@
         <v>1001</v>
       </c>
       <c r="J35">
-        <v>1</v>
+        <v>50</v>
       </c>
       <c r="K35" t="s">
         <v>731</v>
@@ -30654,13 +30606,13 @@
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>760</v>
+        <v>750</v>
       </c>
       <c r="B36" t="s">
         <v>7</v>
       </c>
       <c r="C36" t="s">
-        <v>709</v>
+        <v>729</v>
       </c>
       <c r="E36" t="s">
         <v>994</v>
@@ -30675,7 +30627,7 @@
         <v>1001</v>
       </c>
       <c r="J36">
-        <v>1.4</v>
+        <v>0.05</v>
       </c>
       <c r="K36" t="s">
         <v>731</v>
@@ -30683,10 +30635,10 @@
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>760</v>
+        <v>753</v>
       </c>
       <c r="B37" t="s">
-        <v>7</v>
+        <v>721</v>
       </c>
       <c r="C37" t="s">
         <v>709</v>
@@ -30704,7 +30656,7 @@
         <v>1001</v>
       </c>
       <c r="J37">
-        <v>2.4</v>
+        <v>0.75</v>
       </c>
       <c r="K37" t="s">
         <v>731</v>
@@ -30712,7 +30664,7 @@
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>762</v>
+        <v>756</v>
       </c>
       <c r="B38" t="s">
         <v>7</v>
@@ -30733,7 +30685,7 @@
         <v>1001</v>
       </c>
       <c r="J38">
-        <v>10</v>
+        <v>0.01</v>
       </c>
       <c r="K38" t="s">
         <v>731</v>
@@ -30741,10 +30693,10 @@
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>763</v>
+        <v>758</v>
       </c>
       <c r="B39" t="s">
-        <v>721</v>
+        <v>7</v>
       </c>
       <c r="C39" t="s">
         <v>709</v>
@@ -30762,7 +30714,7 @@
         <v>1001</v>
       </c>
       <c r="J39">
-        <v>1200</v>
+        <v>1</v>
       </c>
       <c r="K39" t="s">
         <v>731</v>
@@ -30770,7 +30722,7 @@
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>766</v>
+        <v>760</v>
       </c>
       <c r="B40" t="s">
         <v>7</v>
@@ -30791,18 +30743,18 @@
         <v>1001</v>
       </c>
       <c r="J40">
-        <v>15</v>
+        <v>1.4</v>
       </c>
       <c r="K40" t="s">
-        <v>767</v>
+        <v>731</v>
       </c>
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>766</v>
+        <v>760</v>
       </c>
       <c r="B41" t="s">
-        <v>721</v>
+        <v>7</v>
       </c>
       <c r="C41" t="s">
         <v>709</v>
@@ -30820,15 +30772,15 @@
         <v>1001</v>
       </c>
       <c r="J41">
-        <v>15</v>
+        <v>2.4</v>
       </c>
       <c r="K41" t="s">
-        <v>767</v>
+        <v>731</v>
       </c>
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>769</v>
+        <v>762</v>
       </c>
       <c r="B42" t="s">
         <v>7</v>
@@ -30849,18 +30801,18 @@
         <v>1001</v>
       </c>
       <c r="J42">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="K42" t="s">
-        <v>770</v>
+        <v>731</v>
       </c>
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A43" s="4" t="s">
-        <v>772</v>
-      </c>
-      <c r="B43" s="4" t="s">
-        <v>7</v>
+      <c r="A43" t="s">
+        <v>763</v>
+      </c>
+      <c r="B43" t="s">
+        <v>721</v>
       </c>
       <c r="C43" t="s">
         <v>709</v>
@@ -30878,17 +30830,17 @@
         <v>1001</v>
       </c>
       <c r="J43">
-        <v>5</v>
+        <v>1200</v>
       </c>
       <c r="K43" t="s">
-        <v>767</v>
+        <v>731</v>
       </c>
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A44" s="4" t="s">
-        <v>772</v>
-      </c>
-      <c r="B44" s="4" t="s">
+      <c r="A44" t="s">
+        <v>766</v>
+      </c>
+      <c r="B44" t="s">
         <v>7</v>
       </c>
       <c r="C44" t="s">
@@ -30907,7 +30859,7 @@
         <v>1001</v>
       </c>
       <c r="J44">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="K44" t="s">
         <v>767</v>
@@ -30915,10 +30867,10 @@
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>776</v>
+        <v>766</v>
       </c>
       <c r="B45" t="s">
-        <v>7</v>
+        <v>721</v>
       </c>
       <c r="C45" t="s">
         <v>709</v>
@@ -30936,7 +30888,7 @@
         <v>1001</v>
       </c>
       <c r="J45">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="K45" t="s">
         <v>767</v>
@@ -30944,7 +30896,7 @@
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>778</v>
+        <v>769</v>
       </c>
       <c r="B46" t="s">
         <v>7</v>
@@ -30965,17 +30917,17 @@
         <v>1001</v>
       </c>
       <c r="J46">
-        <v>20000</v>
+        <v>4</v>
       </c>
       <c r="K46" t="s">
-        <v>767</v>
+        <v>770</v>
       </c>
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A47" t="s">
-        <v>780</v>
-      </c>
-      <c r="B47" t="s">
+      <c r="A47" s="4" t="s">
+        <v>772</v>
+      </c>
+      <c r="B47" s="4" t="s">
         <v>7</v>
       </c>
       <c r="C47" t="s">
@@ -30994,17 +30946,17 @@
         <v>1001</v>
       </c>
       <c r="J47">
-        <v>30</v>
+        <v>5</v>
       </c>
       <c r="K47" t="s">
         <v>767</v>
       </c>
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A48" t="s">
-        <v>784</v>
-      </c>
-      <c r="B48" t="s">
+      <c r="A48" s="4" t="s">
+        <v>772</v>
+      </c>
+      <c r="B48" s="4" t="s">
         <v>7</v>
       </c>
       <c r="C48" t="s">
@@ -31023,15 +30975,15 @@
         <v>1001</v>
       </c>
       <c r="J48">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="K48" t="s">
-        <v>785</v>
+        <v>767</v>
       </c>
     </row>
     <row r="49" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>787</v>
+        <v>776</v>
       </c>
       <c r="B49" t="s">
         <v>7</v>
@@ -31052,15 +31004,15 @@
         <v>1001</v>
       </c>
       <c r="J49">
-        <v>70</v>
+        <v>8</v>
       </c>
       <c r="K49" t="s">
-        <v>785</v>
+        <v>767</v>
       </c>
     </row>
     <row r="50" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>789</v>
+        <v>778</v>
       </c>
       <c r="B50" t="s">
         <v>7</v>
@@ -31081,18 +31033,18 @@
         <v>1001</v>
       </c>
       <c r="J50">
-        <v>40</v>
+        <v>20000</v>
       </c>
       <c r="K50" t="s">
-        <v>785</v>
+        <v>767</v>
       </c>
     </row>
     <row r="51" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>792</v>
+        <v>780</v>
       </c>
       <c r="B51" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C51" t="s">
         <v>709</v>
@@ -31110,18 +31062,18 @@
         <v>1001</v>
       </c>
       <c r="J51">
-        <v>5</v>
+        <v>30</v>
       </c>
       <c r="K51" t="s">
-        <v>793</v>
+        <v>767</v>
       </c>
     </row>
     <row r="52" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>792</v>
+        <v>784</v>
       </c>
       <c r="B52" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C52" t="s">
         <v>709</v>
@@ -31139,18 +31091,18 @@
         <v>1001</v>
       </c>
       <c r="J52">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="K52" t="s">
-        <v>793</v>
+        <v>785</v>
       </c>
     </row>
     <row r="53" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>792</v>
+        <v>787</v>
       </c>
       <c r="B53" t="s">
-        <v>721</v>
+        <v>7</v>
       </c>
       <c r="C53" t="s">
         <v>709</v>
@@ -31168,18 +31120,18 @@
         <v>1001</v>
       </c>
       <c r="J53">
-        <v>5</v>
+        <v>70</v>
       </c>
       <c r="K53" t="s">
-        <v>793</v>
+        <v>785</v>
       </c>
     </row>
     <row r="54" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>794</v>
+        <v>789</v>
       </c>
       <c r="B54" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C54" t="s">
         <v>709</v>
@@ -31197,18 +31149,18 @@
         <v>1001</v>
       </c>
       <c r="J54">
-        <v>0.05</v>
+        <v>40</v>
       </c>
       <c r="K54" t="s">
-        <v>793</v>
+        <v>785</v>
       </c>
     </row>
     <row r="55" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>794</v>
+        <v>792</v>
       </c>
       <c r="B55" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C55" t="s">
         <v>709</v>
@@ -31226,7 +31178,7 @@
         <v>1001</v>
       </c>
       <c r="J55">
-        <v>0.05</v>
+        <v>5</v>
       </c>
       <c r="K55" t="s">
         <v>793</v>
@@ -31234,10 +31186,10 @@
     </row>
     <row r="56" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>762</v>
+        <v>792</v>
       </c>
       <c r="B56" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C56" t="s">
         <v>709</v>
@@ -31255,7 +31207,7 @@
         <v>1001</v>
       </c>
       <c r="J56">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="K56" t="s">
         <v>793</v>
@@ -31263,10 +31215,10 @@
     </row>
     <row r="57" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>762</v>
+        <v>792</v>
       </c>
       <c r="B57" t="s">
-        <v>9</v>
+        <v>721</v>
       </c>
       <c r="C57" t="s">
         <v>709</v>
@@ -31284,7 +31236,7 @@
         <v>1001</v>
       </c>
       <c r="J57">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="K57" t="s">
         <v>793</v>
@@ -31292,16 +31244,13 @@
     </row>
     <row r="58" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>728</v>
+        <v>794</v>
       </c>
       <c r="B58" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C58" t="s">
-        <v>729</v>
-      </c>
-      <c r="D58" t="s">
-        <v>1004</v>
+        <v>709</v>
       </c>
       <c r="E58" t="s">
         <v>994</v>
@@ -31316,24 +31265,21 @@
         <v>1001</v>
       </c>
       <c r="J58">
-        <v>150</v>
+        <v>0.05</v>
       </c>
       <c r="K58" t="s">
-        <v>1006</v>
+        <v>793</v>
       </c>
     </row>
     <row r="59" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>728</v>
+        <v>794</v>
       </c>
       <c r="B59" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C59" t="s">
-        <v>729</v>
-      </c>
-      <c r="D59" t="s">
-        <v>1005</v>
+        <v>709</v>
       </c>
       <c r="E59" t="s">
         <v>994</v>
@@ -31348,24 +31294,21 @@
         <v>1001</v>
       </c>
       <c r="J59">
-        <v>340</v>
+        <v>0.05</v>
       </c>
       <c r="K59" t="s">
-        <v>1006</v>
+        <v>793</v>
       </c>
     </row>
     <row r="60" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>728</v>
+        <v>762</v>
       </c>
       <c r="B60" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C60" t="s">
-        <v>729</v>
-      </c>
-      <c r="D60" t="s">
-        <v>1004</v>
+        <v>709</v>
       </c>
       <c r="E60" t="s">
         <v>994</v>
@@ -31380,24 +31323,21 @@
         <v>1001</v>
       </c>
       <c r="J60">
-        <v>150</v>
+        <v>4</v>
       </c>
       <c r="K60" t="s">
-        <v>1006</v>
+        <v>793</v>
       </c>
     </row>
     <row r="61" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>728</v>
+        <v>762</v>
       </c>
       <c r="B61" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C61" t="s">
-        <v>729</v>
-      </c>
-      <c r="D61" t="s">
-        <v>1005</v>
+        <v>709</v>
       </c>
       <c r="E61" t="s">
         <v>994</v>
@@ -31412,10 +31352,10 @@
         <v>1001</v>
       </c>
       <c r="J61">
-        <v>340</v>
+        <v>4</v>
       </c>
       <c r="K61" t="s">
-        <v>1006</v>
+        <v>793</v>
       </c>
     </row>
     <row r="62" spans="1:11" x14ac:dyDescent="0.25">
@@ -31423,7 +31363,7 @@
         <v>728</v>
       </c>
       <c r="B62" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C62" t="s">
         <v>729</v>
@@ -31455,7 +31395,7 @@
         <v>728</v>
       </c>
       <c r="B63" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C63" t="s">
         <v>729</v>
@@ -31487,7 +31427,7 @@
         <v>728</v>
       </c>
       <c r="B64" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C64" t="s">
         <v>729</v>
@@ -31519,7 +31459,7 @@
         <v>728</v>
       </c>
       <c r="B65" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C65" t="s">
         <v>729</v>
@@ -31548,10 +31488,10 @@
     </row>
     <row r="66" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>1008</v>
+        <v>728</v>
       </c>
       <c r="B66" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C66" t="s">
         <v>729</v>
@@ -31571,8 +31511,8 @@
       <c r="H66" t="s">
         <v>1001</v>
       </c>
-      <c r="J66" t="s">
-        <v>1007</v>
+      <c r="J66">
+        <v>150</v>
       </c>
       <c r="K66" t="s">
         <v>1006</v>
@@ -31580,10 +31520,10 @@
     </row>
     <row r="67" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>1008</v>
+        <v>728</v>
       </c>
       <c r="B67" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C67" t="s">
         <v>729</v>
@@ -31604,7 +31544,7 @@
         <v>1001</v>
       </c>
       <c r="J67">
-        <v>750</v>
+        <v>340</v>
       </c>
       <c r="K67" t="s">
         <v>1006</v>
@@ -31612,10 +31552,10 @@
     </row>
     <row r="68" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>1008</v>
+        <v>728</v>
       </c>
       <c r="B68" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C68" t="s">
         <v>729</v>
@@ -31635,8 +31575,8 @@
       <c r="H68" t="s">
         <v>1001</v>
       </c>
-      <c r="J68" t="s">
-        <v>1007</v>
+      <c r="J68">
+        <v>150</v>
       </c>
       <c r="K68" t="s">
         <v>1006</v>
@@ -31644,10 +31584,10 @@
     </row>
     <row r="69" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>1008</v>
+        <v>728</v>
       </c>
       <c r="B69" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C69" t="s">
         <v>729</v>
@@ -31668,7 +31608,7 @@
         <v>1001</v>
       </c>
       <c r="J69">
-        <v>750</v>
+        <v>340</v>
       </c>
       <c r="K69" t="s">
         <v>1006</v>
@@ -31679,7 +31619,7 @@
         <v>1008</v>
       </c>
       <c r="B70" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C70" t="s">
         <v>729</v>
@@ -31711,7 +31651,7 @@
         <v>1008</v>
       </c>
       <c r="B71" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C71" t="s">
         <v>729</v>
@@ -31743,7 +31683,7 @@
         <v>1008</v>
       </c>
       <c r="B72" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C72" t="s">
         <v>729</v>
@@ -31775,7 +31715,7 @@
         <v>1008</v>
       </c>
       <c r="B73" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C73" t="s">
         <v>729</v>
@@ -31804,10 +31744,10 @@
     </row>
     <row r="74" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>738</v>
+        <v>1008</v>
       </c>
       <c r="B74" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C74" t="s">
         <v>729</v>
@@ -31836,10 +31776,10 @@
     </row>
     <row r="75" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>738</v>
+        <v>1008</v>
       </c>
       <c r="B75" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C75" t="s">
         <v>729</v>
@@ -31859,8 +31799,8 @@
       <c r="H75" t="s">
         <v>1001</v>
       </c>
-      <c r="J75" t="s">
-        <v>1007</v>
+      <c r="J75">
+        <v>750</v>
       </c>
       <c r="K75" t="s">
         <v>1006</v>
@@ -31868,10 +31808,10 @@
     </row>
     <row r="76" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>738</v>
+        <v>1008</v>
       </c>
       <c r="B76" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C76" t="s">
         <v>729</v>
@@ -31900,10 +31840,10 @@
     </row>
     <row r="77" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>738</v>
+        <v>1008</v>
       </c>
       <c r="B77" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C77" t="s">
         <v>729</v>
@@ -31923,8 +31863,8 @@
       <c r="H77" t="s">
         <v>1001</v>
       </c>
-      <c r="J77" t="s">
-        <v>1007</v>
+      <c r="J77">
+        <v>750</v>
       </c>
       <c r="K77" t="s">
         <v>1006</v>
@@ -31935,7 +31875,7 @@
         <v>738</v>
       </c>
       <c r="B78" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C78" t="s">
         <v>729</v>
@@ -31967,7 +31907,7 @@
         <v>738</v>
       </c>
       <c r="B79" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C79" t="s">
         <v>729</v>
@@ -31999,7 +31939,7 @@
         <v>738</v>
       </c>
       <c r="B80" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C80" t="s">
         <v>729</v>
@@ -32031,7 +31971,7 @@
         <v>738</v>
       </c>
       <c r="B81" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C81" t="s">
         <v>729</v>
@@ -32060,88 +32000,216 @@
     </row>
     <row r="82" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>719</v>
+        <v>738</v>
       </c>
       <c r="B82" t="s">
-        <v>1009</v>
+        <v>12</v>
+      </c>
+      <c r="C82" t="s">
+        <v>729</v>
+      </c>
+      <c r="D82" t="s">
+        <v>1004</v>
+      </c>
+      <c r="E82" t="s">
+        <v>994</v>
       </c>
       <c r="F82" t="s">
         <v>994</v>
       </c>
+      <c r="G82">
+        <v>1</v>
+      </c>
+      <c r="H82" t="s">
+        <v>1001</v>
+      </c>
+      <c r="J82" t="s">
+        <v>1007</v>
+      </c>
+      <c r="K82" t="s">
+        <v>1006</v>
+      </c>
     </row>
     <row r="83" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>719</v>
+        <v>738</v>
       </c>
       <c r="B83" t="s">
-        <v>1009</v>
+        <v>12</v>
+      </c>
+      <c r="C83" t="s">
+        <v>729</v>
+      </c>
+      <c r="D83" t="s">
+        <v>1005</v>
+      </c>
+      <c r="E83" t="s">
+        <v>994</v>
       </c>
       <c r="F83" t="s">
-        <v>995</v>
+        <v>994</v>
+      </c>
+      <c r="G83">
+        <v>1</v>
+      </c>
+      <c r="H83" t="s">
+        <v>1001</v>
+      </c>
+      <c r="J83" t="s">
+        <v>1007</v>
+      </c>
+      <c r="K83" t="s">
+        <v>1006</v>
       </c>
     </row>
     <row r="84" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>934</v>
+        <v>738</v>
       </c>
       <c r="B84" t="s">
-        <v>1009</v>
+        <v>13</v>
+      </c>
+      <c r="C84" t="s">
+        <v>729</v>
+      </c>
+      <c r="D84" t="s">
+        <v>1004</v>
+      </c>
+      <c r="E84" t="s">
+        <v>994</v>
       </c>
       <c r="F84" t="s">
         <v>994</v>
       </c>
+      <c r="G84">
+        <v>1</v>
+      </c>
+      <c r="H84" t="s">
+        <v>1001</v>
+      </c>
+      <c r="J84" t="s">
+        <v>1007</v>
+      </c>
       <c r="K84" t="s">
-        <v>1013</v>
+        <v>1006</v>
       </c>
     </row>
     <row r="85" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>1010</v>
+        <v>738</v>
       </c>
       <c r="B85" t="s">
-        <v>1009</v>
+        <v>13</v>
       </c>
       <c r="C85" t="s">
         <v>729</v>
       </c>
+      <c r="D85" t="s">
+        <v>1005</v>
+      </c>
+      <c r="E85" t="s">
+        <v>994</v>
+      </c>
       <c r="F85" t="s">
-        <v>995</v>
+        <v>994</v>
+      </c>
+      <c r="G85">
+        <v>1</v>
+      </c>
+      <c r="H85" t="s">
+        <v>1001</v>
+      </c>
+      <c r="J85" t="s">
+        <v>1007</v>
       </c>
       <c r="K85" t="s">
-        <v>793</v>
+        <v>1006</v>
       </c>
     </row>
     <row r="86" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>1011</v>
+        <v>719</v>
       </c>
       <c r="B86" t="s">
         <v>1009</v>
       </c>
-      <c r="C86" t="s">
-        <v>729</v>
-      </c>
       <c r="F86" t="s">
-        <v>995</v>
-      </c>
-      <c r="K86" t="s">
-        <v>793</v>
+        <v>994</v>
       </c>
     </row>
     <row r="87" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>1012</v>
+        <v>719</v>
       </c>
       <c r="B87" t="s">
         <v>1009</v>
       </c>
-      <c r="C87" t="s">
-        <v>729</v>
-      </c>
       <c r="F87" t="s">
         <v>995</v>
       </c>
-      <c r="K87" t="s">
+    </row>
+    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A88" t="s">
+        <v>934</v>
+      </c>
+      <c r="B88" t="s">
+        <v>1009</v>
+      </c>
+      <c r="F88" t="s">
+        <v>994</v>
+      </c>
+      <c r="K88" t="s">
+        <v>1013</v>
+      </c>
+    </row>
+    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A89" t="s">
+        <v>1010</v>
+      </c>
+      <c r="B89" t="s">
+        <v>1009</v>
+      </c>
+      <c r="C89" t="s">
+        <v>729</v>
+      </c>
+      <c r="F89" t="s">
+        <v>995</v>
+      </c>
+      <c r="K89" t="s">
+        <v>793</v>
+      </c>
+    </row>
+    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A90" t="s">
+        <v>1011</v>
+      </c>
+      <c r="B90" t="s">
+        <v>1009</v>
+      </c>
+      <c r="C90" t="s">
+        <v>729</v>
+      </c>
+      <c r="F90" t="s">
+        <v>995</v>
+      </c>
+      <c r="K90" t="s">
+        <v>793</v>
+      </c>
+    </row>
+    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A91" t="s">
+        <v>1012</v>
+      </c>
+      <c r="B91" t="s">
+        <v>1009</v>
+      </c>
+      <c r="C91" t="s">
+        <v>729</v>
+      </c>
+      <c r="F91" t="s">
+        <v>995</v>
+      </c>
+      <c r="K91" t="s">
         <v>793</v>
       </c>
     </row>
@@ -33236,7 +33304,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B32" sqref="B32"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>

--- a/IR_uses_standards.xlsx
+++ b/IR_uses_standards.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="120" windowWidth="27795" windowHeight="12585" tabRatio="577" firstSheet="1" activeTab="3"/>
+    <workbookView xWindow="480" yWindow="120" windowWidth="27795" windowHeight="12585" tabRatio="577" firstSheet="1" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="PolyToTableMatch_BU" sheetId="4" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8387" uniqueCount="1021">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8387" uniqueCount="1022">
   <si>
     <t>WaterbodyTypes</t>
   </si>
@@ -3111,6 +3111,9 @@
   </si>
   <si>
     <t>NumericCriterion</t>
+  </si>
+  <si>
+    <t>mean</t>
   </si>
 </sst>
 </file>
@@ -29628,7 +29631,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K91"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="F20" sqref="F20"/>
     </sheetView>
@@ -33304,8 +33307,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O32"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B32" sqref="B32"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J6" sqref="J6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -33426,7 +33429,7 @@
         <v>10</v>
       </c>
       <c r="J3" t="s">
-        <v>809</v>
+        <v>1021</v>
       </c>
       <c r="K3" t="s">
         <v>1017</v>
@@ -33499,7 +33502,7 @@
         <v>2</v>
       </c>
       <c r="J5" t="s">
-        <v>809</v>
+        <v>1021</v>
       </c>
       <c r="K5" t="s">
         <v>1017</v>

--- a/IR_uses_standards.xlsx
+++ b/IR_uses_standards.xlsx
@@ -4,16 +4,17 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="120" windowWidth="27795" windowHeight="12585" tabRatio="577" firstSheet="1" activeTab="5"/>
+    <workbookView xWindow="480" yWindow="120" windowWidth="27795" windowHeight="12585" tabRatio="577" firstSheet="3" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="PolyToTableMatch_BU" sheetId="4" r:id="rId1"/>
     <sheet name="BeneficialUses" sheetId="1" r:id="rId2"/>
     <sheet name="R317214DomesticRecAgCriteria" sheetId="2" r:id="rId3"/>
     <sheet name="R317214DomesticRecAgCriteria_JV" sheetId="6" r:id="rId4"/>
-    <sheet name="R317214SSCriteria" sheetId="3" r:id="rId5"/>
-    <sheet name="R317214SSCriteria_JV" sheetId="7" r:id="rId6"/>
-    <sheet name="PolyToTableMatch_SS" sheetId="5" r:id="rId7"/>
+    <sheet name="cf_formulas" sheetId="8" r:id="rId5"/>
+    <sheet name="R317214SSCriteria" sheetId="3" r:id="rId6"/>
+    <sheet name="R317214SSCriteria_JV" sheetId="7" r:id="rId7"/>
+    <sheet name="PolyToTableMatch_SS" sheetId="5" r:id="rId8"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">BeneficialUses!$A$1:$U$633</definedName>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8387" uniqueCount="1022">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8440" uniqueCount="1032">
   <si>
     <t>WaterbodyTypes</t>
   </si>
@@ -3114,6 +3115,36 @@
   </si>
   <si>
     <t>mean</t>
+  </si>
+  <si>
+    <t>CF * e(0.7977*ln(hardness)-.909)</t>
+  </si>
+  <si>
+    <t>1.101672 - ln(hardness) (0.041838)</t>
+  </si>
+  <si>
+    <t>CriterionFormula</t>
+  </si>
+  <si>
+    <t>1.136672 - ln(hardness) (0.041838)</t>
+  </si>
+  <si>
+    <t>CF * e(0.9789*ln(hardness)-3.866)</t>
+  </si>
+  <si>
+    <t>ifelse(min_pH&gt;=7 &amp; hardness&gt;=50, NA, 87)</t>
+  </si>
+  <si>
+    <t>Ammonia</t>
+  </si>
+  <si>
+    <t>mg/L</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ((0.0577/(1+107.688-max_pH)) + (2.487/(1+ 10*max_pH-7.688))) * MIN(2.85,1.45*100.028*(25-T))</t>
+  </si>
+  <si>
+    <t>Chronic ELS</t>
   </si>
 </sst>
 </file>
@@ -3175,13 +3206,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -3506,16 +3540,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="7" t="s">
         <v>924</v>
       </c>
-      <c r="B1" s="6"/>
-      <c r="C1" s="6" t="s">
+      <c r="B1" s="7"/>
+      <c r="C1" s="7" t="s">
         <v>928</v>
       </c>
-      <c r="D1" s="6"/>
-      <c r="E1" s="6"/>
-      <c r="F1" s="6"/>
+      <c r="D1" s="7"/>
+      <c r="E1" s="7"/>
+      <c r="F1" s="7"/>
       <c r="H1" t="s">
         <v>936</v>
       </c>
@@ -29629,11 +29663,11 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K91"/>
+  <dimension ref="A1:K93"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F20" sqref="F20"/>
+      <selection pane="bottomLeft" activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -30177,6 +30211,9 @@
       <c r="C20" t="s">
         <v>709</v>
       </c>
+      <c r="E20" t="s">
+        <v>994</v>
+      </c>
       <c r="J20">
         <v>10</v>
       </c>
@@ -30194,6 +30231,9 @@
       <c r="C21" t="s">
         <v>709</v>
       </c>
+      <c r="E21" t="s">
+        <v>994</v>
+      </c>
       <c r="J21">
         <v>10</v>
       </c>
@@ -32136,6 +32176,9 @@
       <c r="B86" t="s">
         <v>1009</v>
       </c>
+      <c r="E86" t="s">
+        <v>994</v>
+      </c>
       <c r="F86" t="s">
         <v>994</v>
       </c>
@@ -32147,6 +32190,9 @@
       <c r="B87" t="s">
         <v>1009</v>
       </c>
+      <c r="E87" t="s">
+        <v>994</v>
+      </c>
       <c r="F87" t="s">
         <v>995</v>
       </c>
@@ -32158,6 +32204,9 @@
       <c r="B88" t="s">
         <v>1009</v>
       </c>
+      <c r="E88" t="s">
+        <v>994</v>
+      </c>
       <c r="F88" t="s">
         <v>994</v>
       </c>
@@ -32175,6 +32224,9 @@
       <c r="C89" t="s">
         <v>729</v>
       </c>
+      <c r="E89" t="s">
+        <v>994</v>
+      </c>
       <c r="F89" t="s">
         <v>995</v>
       </c>
@@ -32192,6 +32244,9 @@
       <c r="C90" t="s">
         <v>729</v>
       </c>
+      <c r="E90" t="s">
+        <v>994</v>
+      </c>
       <c r="F90" t="s">
         <v>995</v>
       </c>
@@ -32209,11 +32264,78 @@
       <c r="C91" t="s">
         <v>729</v>
       </c>
+      <c r="E91" t="s">
+        <v>994</v>
+      </c>
       <c r="F91" t="s">
         <v>995</v>
       </c>
       <c r="K91" t="s">
         <v>793</v>
+      </c>
+    </row>
+    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A92" t="s">
+        <v>1008</v>
+      </c>
+      <c r="B92" t="s">
+        <v>10</v>
+      </c>
+      <c r="C92" t="s">
+        <v>729</v>
+      </c>
+      <c r="D92" t="s">
+        <v>1005</v>
+      </c>
+      <c r="E92" t="s">
+        <v>994</v>
+      </c>
+      <c r="F92" t="s">
+        <v>994</v>
+      </c>
+      <c r="G92">
+        <v>1</v>
+      </c>
+      <c r="H92" t="s">
+        <v>1001</v>
+      </c>
+      <c r="J92">
+        <v>750</v>
+      </c>
+      <c r="K92" t="s">
+        <v>1006</v>
+      </c>
+    </row>
+    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A93" t="s">
+        <v>1008</v>
+      </c>
+      <c r="B93" t="s">
+        <v>10</v>
+      </c>
+      <c r="C93" t="s">
+        <v>729</v>
+      </c>
+      <c r="D93" t="s">
+        <v>1004</v>
+      </c>
+      <c r="E93" t="s">
+        <v>994</v>
+      </c>
+      <c r="F93" t="s">
+        <v>994</v>
+      </c>
+      <c r="G93">
+        <v>1</v>
+      </c>
+      <c r="H93" t="s">
+        <v>1001</v>
+      </c>
+      <c r="J93" t="s">
+        <v>1007</v>
+      </c>
+      <c r="K93" t="s">
+        <v>1006</v>
       </c>
     </row>
   </sheetData>
@@ -32223,6 +32345,124 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C21" sqref="C21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="21" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="34.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="87.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>1015</v>
+      </c>
+      <c r="B1" t="s">
+        <v>696</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1003</v>
+      </c>
+      <c r="D1" t="s">
+        <v>1002</v>
+      </c>
+      <c r="E1" t="s">
+        <v>1009</v>
+      </c>
+      <c r="F1" t="s">
+        <v>1024</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>738</v>
+      </c>
+      <c r="B2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" t="s">
+        <v>1004</v>
+      </c>
+      <c r="D2" t="s">
+        <v>1006</v>
+      </c>
+      <c r="E2" t="s">
+        <v>1023</v>
+      </c>
+      <c r="F2" t="s">
+        <v>1022</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>738</v>
+      </c>
+      <c r="B3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" t="s">
+        <v>1005</v>
+      </c>
+      <c r="D3" t="s">
+        <v>1006</v>
+      </c>
+      <c r="E3" t="s">
+        <v>1025</v>
+      </c>
+      <c r="F3" t="s">
+        <v>1026</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>1008</v>
+      </c>
+      <c r="B4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" t="s">
+        <v>1004</v>
+      </c>
+      <c r="D4" t="s">
+        <v>1006</v>
+      </c>
+      <c r="F4" t="s">
+        <v>1027</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>1028</v>
+      </c>
+      <c r="B5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" t="s">
+        <v>1031</v>
+      </c>
+      <c r="D5" t="s">
+        <v>1029</v>
+      </c>
+      <c r="F5" s="6" t="s">
+        <v>1030</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T32"/>
   <sheetViews>
@@ -33303,13 +33543,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J6" sqref="J6"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -34368,12 +34606,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+      <selection activeCell="A23" sqref="A23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/IR_uses_standards.xlsx
+++ b/IR_uses_standards.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="120" windowWidth="27795" windowHeight="12585" tabRatio="577" firstSheet="3" activeTab="6"/>
+    <workbookView xWindow="480" yWindow="120" windowWidth="27795" windowHeight="12585" tabRatio="577" firstSheet="3" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="PolyToTableMatch_BU" sheetId="4" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8440" uniqueCount="1032">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8470" uniqueCount="1035">
   <si>
     <t>WaterbodyTypes</t>
   </si>
@@ -3145,6 +3145,15 @@
   </si>
   <si>
     <t>Chronic ELS</t>
+  </si>
+  <si>
+    <t>Profile depth</t>
+  </si>
+  <si>
+    <t>Minimum Dissolved Oxygen</t>
+  </si>
+  <si>
+    <t>m</t>
   </si>
 </sst>
 </file>
@@ -29663,11 +29672,11 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K93"/>
+  <dimension ref="A1:K99"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E2" sqref="E2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A77" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B95" sqref="B95"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -32336,6 +32345,132 @@
       </c>
       <c r="K93" t="s">
         <v>1006</v>
+      </c>
+    </row>
+    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A94" t="s">
+        <v>1032</v>
+      </c>
+      <c r="B94" t="s">
+        <v>10</v>
+      </c>
+      <c r="K94" t="s">
+        <v>1034</v>
+      </c>
+    </row>
+    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A95" t="s">
+        <v>1032</v>
+      </c>
+      <c r="B95" t="s">
+        <v>11</v>
+      </c>
+      <c r="K95" t="s">
+        <v>1034</v>
+      </c>
+    </row>
+    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A96" t="s">
+        <v>1033</v>
+      </c>
+      <c r="B96" t="s">
+        <v>10</v>
+      </c>
+      <c r="E96" t="s">
+        <v>995</v>
+      </c>
+      <c r="F96" t="s">
+        <v>995</v>
+      </c>
+      <c r="G96">
+        <v>1</v>
+      </c>
+      <c r="H96" t="s">
+        <v>1001</v>
+      </c>
+      <c r="J96">
+        <v>5</v>
+      </c>
+      <c r="K96" t="s">
+        <v>793</v>
+      </c>
+    </row>
+    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A97" t="s">
+        <v>1033</v>
+      </c>
+      <c r="B97" t="s">
+        <v>11</v>
+      </c>
+      <c r="E97" t="s">
+        <v>995</v>
+      </c>
+      <c r="F97" t="s">
+        <v>995</v>
+      </c>
+      <c r="G97">
+        <v>1</v>
+      </c>
+      <c r="H97" t="s">
+        <v>1001</v>
+      </c>
+      <c r="J97">
+        <v>3</v>
+      </c>
+      <c r="K97" t="s">
+        <v>793</v>
+      </c>
+    </row>
+    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A98" t="s">
+        <v>934</v>
+      </c>
+      <c r="B98" t="s">
+        <v>10</v>
+      </c>
+      <c r="E98" t="s">
+        <v>994</v>
+      </c>
+      <c r="F98" t="s">
+        <v>994</v>
+      </c>
+      <c r="G98">
+        <v>1</v>
+      </c>
+      <c r="H98" t="s">
+        <v>1001</v>
+      </c>
+      <c r="J98">
+        <v>20</v>
+      </c>
+      <c r="K98" t="s">
+        <v>1013</v>
+      </c>
+    </row>
+    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A99" t="s">
+        <v>934</v>
+      </c>
+      <c r="B99" t="s">
+        <v>11</v>
+      </c>
+      <c r="E99" t="s">
+        <v>994</v>
+      </c>
+      <c r="F99" t="s">
+        <v>994</v>
+      </c>
+      <c r="G99">
+        <v>1</v>
+      </c>
+      <c r="H99" t="s">
+        <v>1001</v>
+      </c>
+      <c r="J99">
+        <v>27</v>
+      </c>
+      <c r="K99" t="s">
+        <v>1013</v>
       </c>
     </row>
   </sheetData>
@@ -33547,7 +33682,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B33" sqref="B33"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>

--- a/IR_uses_standards.xlsx
+++ b/IR_uses_standards.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="120" windowWidth="27795" windowHeight="12585" tabRatio="577" firstSheet="3" activeTab="6"/>
+    <workbookView xWindow="180" yWindow="-30" windowWidth="24390" windowHeight="10860" tabRatio="577" firstSheet="3" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="PolyToTableMatch_BU" sheetId="4" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8440" uniqueCount="1032">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8446" uniqueCount="1034">
   <si>
     <t>WaterbodyTypes</t>
   </si>
@@ -3145,6 +3145,12 @@
   </si>
   <si>
     <t>Chronic ELS</t>
+  </si>
+  <si>
+    <t>30-day</t>
+  </si>
+  <si>
+    <t>max_crit</t>
   </si>
 </sst>
 </file>
@@ -29665,9 +29671,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K93"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E2" sqref="E2"/>
+      <selection pane="bottomLeft" activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -29728,6 +29734,9 @@
       <c r="C2" t="s">
         <v>709</v>
       </c>
+      <c r="D2" t="s">
+        <v>1032</v>
+      </c>
       <c r="E2" t="s">
         <v>994</v>
       </c>
@@ -29760,6 +29769,9 @@
       <c r="C3" t="s">
         <v>709</v>
       </c>
+      <c r="D3" t="s">
+        <v>1032</v>
+      </c>
       <c r="E3" t="s">
         <v>994</v>
       </c>
@@ -29792,6 +29804,9 @@
       <c r="C4" t="s">
         <v>709</v>
       </c>
+      <c r="D4" t="s">
+        <v>1032</v>
+      </c>
       <c r="E4" t="s">
         <v>994</v>
       </c>
@@ -29824,6 +29839,9 @@
       <c r="C5" t="s">
         <v>709</v>
       </c>
+      <c r="D5" t="s">
+        <v>1033</v>
+      </c>
       <c r="E5" t="s">
         <v>994</v>
       </c>
@@ -29853,6 +29871,9 @@
       <c r="C6" t="s">
         <v>709</v>
       </c>
+      <c r="D6" t="s">
+        <v>1033</v>
+      </c>
       <c r="E6" t="s">
         <v>994</v>
       </c>
@@ -29881,6 +29902,9 @@
       </c>
       <c r="C7" t="s">
         <v>709</v>
+      </c>
+      <c r="D7" t="s">
+        <v>1033</v>
       </c>
       <c r="E7" t="s">
         <v>994</v>
@@ -33547,7 +33571,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>

--- a/IR_uses_standards.xlsx
+++ b/IR_uses_standards.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8446" uniqueCount="1034">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8476" uniqueCount="1037">
   <si>
     <t>WaterbodyTypes</t>
   </si>
@@ -3151,6 +3151,15 @@
   </si>
   <si>
     <t>max_crit</t>
+  </si>
+  <si>
+    <t>Profile depth</t>
+  </si>
+  <si>
+    <t>m</t>
+  </si>
+  <si>
+    <t>Minimum Dissolved Oxygen</t>
   </si>
 </sst>
 </file>
@@ -29669,11 +29678,11 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K93"/>
+  <dimension ref="A1:K99"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D14" sqref="D14"/>
+      <selection pane="bottomLeft" activeCell="J13" sqref="J13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -32360,6 +32369,132 @@
       </c>
       <c r="K93" t="s">
         <v>1006</v>
+      </c>
+    </row>
+    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A94" t="s">
+        <v>1034</v>
+      </c>
+      <c r="B94" t="s">
+        <v>10</v>
+      </c>
+      <c r="K94" t="s">
+        <v>1035</v>
+      </c>
+    </row>
+    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A95" t="s">
+        <v>1034</v>
+      </c>
+      <c r="B95" t="s">
+        <v>11</v>
+      </c>
+      <c r="K95" t="s">
+        <v>1035</v>
+      </c>
+    </row>
+    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A96" t="s">
+        <v>1036</v>
+      </c>
+      <c r="B96" t="s">
+        <v>10</v>
+      </c>
+      <c r="E96" t="s">
+        <v>995</v>
+      </c>
+      <c r="F96" t="s">
+        <v>995</v>
+      </c>
+      <c r="G96">
+        <v>1</v>
+      </c>
+      <c r="H96" t="s">
+        <v>1001</v>
+      </c>
+      <c r="J96">
+        <v>5</v>
+      </c>
+      <c r="K96" t="s">
+        <v>793</v>
+      </c>
+    </row>
+    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A97" t="s">
+        <v>1036</v>
+      </c>
+      <c r="B97" t="s">
+        <v>11</v>
+      </c>
+      <c r="E97" t="s">
+        <v>995</v>
+      </c>
+      <c r="F97" t="s">
+        <v>995</v>
+      </c>
+      <c r="G97">
+        <v>1</v>
+      </c>
+      <c r="H97" t="s">
+        <v>1001</v>
+      </c>
+      <c r="J97">
+        <v>3</v>
+      </c>
+      <c r="K97" t="s">
+        <v>793</v>
+      </c>
+    </row>
+    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A98" t="s">
+        <v>934</v>
+      </c>
+      <c r="B98" t="s">
+        <v>10</v>
+      </c>
+      <c r="E98" t="s">
+        <v>994</v>
+      </c>
+      <c r="F98" t="s">
+        <v>994</v>
+      </c>
+      <c r="G98">
+        <v>1</v>
+      </c>
+      <c r="H98" t="s">
+        <v>1001</v>
+      </c>
+      <c r="J98">
+        <v>20</v>
+      </c>
+      <c r="K98" t="s">
+        <v>1013</v>
+      </c>
+    </row>
+    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A99" t="s">
+        <v>934</v>
+      </c>
+      <c r="B99" t="s">
+        <v>11</v>
+      </c>
+      <c r="E99" t="s">
+        <v>994</v>
+      </c>
+      <c r="F99" t="s">
+        <v>994</v>
+      </c>
+      <c r="G99">
+        <v>1</v>
+      </c>
+      <c r="H99" t="s">
+        <v>1001</v>
+      </c>
+      <c r="J99">
+        <v>27</v>
+      </c>
+      <c r="K99" t="s">
+        <v>1013</v>
       </c>
     </row>
   </sheetData>

--- a/IR_uses_standards.xlsx
+++ b/IR_uses_standards.xlsx
@@ -29681,8 +29681,8 @@
   <dimension ref="A1:K99"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J13" sqref="J13"/>
+      <pane ySplit="1" topLeftCell="A68" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I100" sqref="I100"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -32413,7 +32413,7 @@
         <v>1001</v>
       </c>
       <c r="J96">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="K96" t="s">
         <v>793</v>
